--- a/tile-maps.xlsx
+++ b/tile-maps.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1240" windowWidth="23820" windowHeight="25500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="16320" yWindow="1240" windowWidth="23820" windowHeight="25500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 group" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
   <si>
     <t>AL</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Group four</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2225,7 +2231,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="6" customFormat="1" ht="36" customHeight="1" thickTop="1" thickBot="1">
@@ -2285,7 +2291,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
@@ -2423,7 +2429,7 @@
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2482,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="6" customFormat="1" ht="36" customHeight="1" thickTop="1" thickBot="1">
@@ -2542,7 +2548,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>6</v>
@@ -2680,7 +2686,7 @@
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2742,7 +2748,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="6" customFormat="1" ht="36" customHeight="1" thickTop="1" thickBot="1">
@@ -2802,7 +2808,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>6</v>
@@ -2939,8 +2945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3006,7 +3012,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="6" customFormat="1" ht="36" customHeight="1" thickTop="1" thickBot="1">
@@ -3066,7 +3072,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>6</v>
